--- a/database/sidis/expdata/7010.xlsx
+++ b/database/sidis/expdata/7010.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengordon/jam3d/database/sidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengordon/Desktop/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4310F4C5-EE06-5C43-9507-91B7E3E31CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F4AFC-55F6-944A-909B-3B528A3740D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="960" windowWidth="22500" windowHeight="17440" xr2:uid="{713EBF83-D22A-B840-AA49-664E3D3BEEC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17780" windowHeight="17440" xr2:uid="{713EBF83-D22A-B840-AA49-664E3D3BEEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2313,11 +2314,11 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="F45">
-        <v>2.5999999999999999E-2</v>
+        <v>0.129</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>0.161245154965971</v>
+        <v>0.35916569992135944</v>
       </c>
       <c r="H45">
         <v>0.79</v>
@@ -2355,11 +2356,11 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="F46">
-        <v>0.129</v>
+        <v>0.217</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>0.35916569992135944</v>
+        <v>0.46583258795408461</v>
       </c>
       <c r="H46">
         <v>0.79</v>
@@ -2397,11 +2398,11 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="F47">
-        <v>0.217</v>
+        <v>0.34</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>0.46583258795408461</v>
+        <v>0.5830951894845301</v>
       </c>
       <c r="H47">
         <v>0.8</v>
@@ -2439,11 +2440,11 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="F48">
-        <v>0.34</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>0.5830951894845301</v>
+        <v>0.71203932475671594</v>
       </c>
       <c r="H48">
         <v>0.84</v>
@@ -2481,11 +2482,11 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="F49">
-        <v>0.50700000000000001</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0.71203932475671594</v>
+        <v>0.86197447758039791</v>
       </c>
       <c r="H49">
         <v>0.92</v>
@@ -2523,11 +2524,11 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="F50">
-        <v>0.74299999999999999</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0.86197447758039791</v>
+        <f xml:space="preserve"> SQRT(F50)</f>
+        <v>7.0710678118654752E-2</v>
       </c>
       <c r="H50">
         <v>0.64</v>
@@ -2565,11 +2566,11 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="F51">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>7.0710678118654752E-2</v>
+        <f xml:space="preserve"> SQRT(F51)</f>
+        <v>0.161245154965971</v>
       </c>
       <c r="H51">
         <v>0.62</v>
@@ -2607,11 +2608,11 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="F52">
-        <v>2.5999999999999999E-2</v>
+        <v>0.129</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0.161245154965971</v>
+        <f xml:space="preserve"> SQRT(F52)</f>
+        <v>0.35916569992135944</v>
       </c>
       <c r="H52">
         <v>0.92</v>
